--- a/testdata/testdatasheetNew.xlsx
+++ b/testdata/testdatasheetNew.xlsx
@@ -88,12 +88,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -324,7 +321,6 @@
     <col customWidth="1" min="4" max="4" width="27.0"/>
     <col customWidth="1" min="5" max="5" width="27.5"/>
     <col customWidth="1" min="6" max="6" width="16.75"/>
-    <col customWidth="1" min="7" max="7" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -334,16 +330,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -354,56 +350,56 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
-        <v>20.0</v>
+      <c r="F2" s="3">
+        <v>17.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>15.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>26.0</v>
       </c>
     </row>
